--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duke\Desktop\2\dataMineongDeploy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3778D41-05E4-42DD-B30A-1D4F6B7A406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="40035" windowHeight="23145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>FavouriteField</t>
   </si>
@@ -58,12 +52,27 @@
     <t>comen</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
     <t>com-en</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Computer Engineer</t>
+  </si>
+  <si>
     <t>UI</t>
   </si>
   <si>
@@ -71,17 +80,26 @@
   </si>
   <si>
     <t>User Requirement</t>
+  </si>
+  <si>
+    <t>UI (User Interface)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,7 +107,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,23 +154,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,27 +236,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,24 +270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,16 +445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,15 +478,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -532,15 +504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -558,15 +530,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -584,15 +556,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -610,15 +582,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -636,15 +608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -662,15 +634,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -686,6 +658,136 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="30">
   <si>
     <t>FavouriteField</t>
   </si>
@@ -40,6 +40,15 @@
     <t>SQL</t>
   </si>
   <si>
+    <t>FavoriteField</t>
+  </si>
+  <si>
+    <t>FavoriteCamp</t>
+  </si>
+  <si>
+    <t>MostImportantThingOfDesigning</t>
+  </si>
+  <si>
     <t>software</t>
   </si>
   <si>
@@ -85,10 +94,16 @@
     <t>UI (User Interface)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Computer Science,</t>
+  </si>
+  <si>
+    <t>Security</t>
   </si>
 </sst>
 </file>
@@ -446,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,276 +492,285 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -764,29 +788,705 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11">
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11">
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11">
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11">
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11">
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11">
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" t="s">
         <v>24</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="33" spans="4:11">
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" t="s">
         <v>24</v>
       </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="34" spans="4:11">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
+    </row>
+    <row r="35" spans="4:11">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11">
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" t="s">
         <v>24</v>
       </c>
     </row>
